--- a/Assignment3/codes/Given_data.xlsx
+++ b/Assignment3/codes/Given_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659E93E7-A40F-4486-934F-6BC8298002D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79402C-EF33-49B7-B870-6420BB1E5F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{363F3006-B5C3-41AC-BDAE-C450B67B65B6}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t xml:space="preserve"> 800 - 900</t>
   </si>
   <si>
-    <t xml:space="preserve"> 900 - 1000</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 700 - 800</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>No.of neon lamps</t>
+  </si>
+  <si>
+    <t>900 - 1000</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,10 +434,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>74</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -503,6 +503,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F5EEB94D01041448004489100BEE17F" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd953880d40773b96cb653378cf5b14b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0d3b7092-47a7-4f4b-893c-0ac09dce8824" xmlns:ns4="b725cd41-bc11-4eca-98a0-8cd6287fa79c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef456ba3bca350d10dea1e8e78026500" ns3:_="" ns4:_="">
     <xsd:import namespace="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
@@ -687,15 +696,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -703,6 +703,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9942825B-71EA-42F8-8FFF-AD50FC373C2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -721,14 +729,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8FD2C-A243-431E-A901-AA7CE33E514A}">
   <ds:schemaRefs>

--- a/Assignment3/codes/Given_data.xlsx
+++ b/Assignment3/codes/Given_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79402C-EF33-49B7-B870-6420BB1E5F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E203B30-1E5D-42C9-A42E-280CF466FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{363F3006-B5C3-41AC-BDAE-C450B67B65B6}"/>
   </bookViews>
@@ -49,19 +49,19 @@
     <t xml:space="preserve"> 600 - 700</t>
   </si>
   <si>
+    <t xml:space="preserve"> 700 - 800</t>
+  </si>
+  <si>
+    <t>Lifetime(in hrs)</t>
+  </si>
+  <si>
+    <t>No.of neon lamps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 900 - 1000</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 800 - 900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 700 - 800</t>
-  </si>
-  <si>
-    <t>Lifetime(in hrs)</t>
-  </si>
-  <si>
-    <t>No.of neon lamps</t>
-  </si>
-  <si>
-    <t>900 - 1000</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,10 +434,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>74</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>62</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -503,15 +503,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F5EEB94D01041448004489100BEE17F" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd953880d40773b96cb653378cf5b14b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0d3b7092-47a7-4f4b-893c-0ac09dce8824" xmlns:ns4="b725cd41-bc11-4eca-98a0-8cd6287fa79c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef456ba3bca350d10dea1e8e78026500" ns3:_="" ns4:_="">
     <xsd:import namespace="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
@@ -696,6 +687,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -703,14 +703,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9942825B-71EA-42F8-8FFF-AD50FC373C2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -729,6 +721,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223E4AC1-77A5-40C2-87CD-4DC9580EC82A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD8FD2C-A243-431E-A901-AA7CE33E514A}">
   <ds:schemaRefs>
